--- a/srv/handlers/custom_handler/CSV/RiskIndicators.xlsx
+++ b/srv/handlers/custom_handler/CSV/RiskIndicators.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonard.barascu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonard.barascu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477E7DF8-7F7D-6443-999F-78694EC1E32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F748949C-3601-1845-9577-27605B1BC71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{3CC2883A-A1BE-B040-B8C5-97B1148CC1B3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>IndicatorID</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>EUDR</t>
+  </si>
+  <si>
+    <t>ESG11</t>
   </si>
 </sst>
 </file>
@@ -525,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46656BC4-042B-D243-B813-7CFA08F26FD4}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,6 +741,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
